--- a/natmiOut/OldD2/LR-pairs_lrc2p/Lgi2-Adam23.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Lgi2-Adam23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,6 +89,12 @@
   </si>
   <si>
     <t>Adam23</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.94316345848197</v>
+        <v>7.194537333333333</v>
       </c>
       <c r="H2">
-        <v>6.94316345848197</v>
+        <v>21.583612</v>
       </c>
       <c r="I2">
-        <v>0.9465110918858207</v>
+        <v>0.9450222006930215</v>
       </c>
       <c r="J2">
-        <v>0.9465110918858207</v>
+        <v>0.9617036862109067</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>18.7790377793868</v>
+        <v>0.056827</v>
       </c>
       <c r="N2">
-        <v>18.7790377793868</v>
+        <v>0.113654</v>
       </c>
       <c r="O2">
-        <v>0.8157724497605758</v>
+        <v>0.002198372771388981</v>
       </c>
       <c r="P2">
-        <v>0.8157724497605758</v>
+        <v>0.001552001951971484</v>
       </c>
       <c r="Q2">
-        <v>130.3859288952908</v>
+        <v>0.4088439730413334</v>
       </c>
       <c r="R2">
-        <v>130.3859288952908</v>
+        <v>2.453063838248</v>
       </c>
       <c r="S2">
-        <v>0.7721376721532535</v>
+        <v>0.002077511074361631</v>
       </c>
       <c r="T2">
-        <v>0.7721376721532535</v>
+        <v>0.001492565998217499</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.94316345848197</v>
+        <v>7.194537333333333</v>
       </c>
       <c r="H3">
-        <v>6.94316345848197</v>
+        <v>21.583612</v>
       </c>
       <c r="I3">
-        <v>0.9465110918858207</v>
+        <v>0.9450222006930215</v>
       </c>
       <c r="J3">
-        <v>0.9465110918858207</v>
+        <v>0.9617036862109067</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.168125640760176</v>
+        <v>21.108446</v>
       </c>
       <c r="N3">
-        <v>0.168125640760176</v>
+        <v>63.325338</v>
       </c>
       <c r="O3">
-        <v>0.007303476751138085</v>
+        <v>0.8165877651949714</v>
       </c>
       <c r="P3">
-        <v>0.007303476751138085</v>
+        <v>0.8647390165348687</v>
       </c>
       <c r="Q3">
-        <v>1.167323805359921</v>
+        <v>151.8655027956507</v>
       </c>
       <c r="R3">
-        <v>1.167323805359921</v>
+        <v>1366.789525160856</v>
       </c>
       <c r="S3">
-        <v>0.006912821754282416</v>
+        <v>0.7716935669235482</v>
       </c>
       <c r="T3">
-        <v>0.006912821754282416</v>
+        <v>0.8316226998119775</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,247 +652,991 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.94316345848197</v>
+        <v>7.194537333333333</v>
       </c>
       <c r="H4">
-        <v>6.94316345848197</v>
+        <v>21.583612</v>
       </c>
       <c r="I4">
-        <v>0.9465110918858207</v>
+        <v>0.9450222006930215</v>
       </c>
       <c r="J4">
-        <v>0.9465110918858207</v>
+        <v>0.9617036862109067</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>4.07278262595734</v>
+        <v>0.04350366666666667</v>
       </c>
       <c r="N4">
-        <v>4.07278262595734</v>
+        <v>0.130511</v>
       </c>
       <c r="O4">
-        <v>0.176924073488286</v>
+        <v>0.001682954867502814</v>
       </c>
       <c r="P4">
-        <v>0.176924073488286</v>
+        <v>0.001782192679129202</v>
       </c>
       <c r="Q4">
-        <v>28.27799550288725</v>
+        <v>0.3129887539702222</v>
       </c>
       <c r="R4">
-        <v>28.27799550288725</v>
+        <v>2.816898785732</v>
       </c>
       <c r="S4">
-        <v>0.1674605979782848</v>
+        <v>0.001590429712554542</v>
       </c>
       <c r="T4">
-        <v>0.1674605979782848</v>
+        <v>0.001713941269056645</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.392369656770245</v>
+        <v>7.194537333333333</v>
       </c>
       <c r="H5">
-        <v>0.392369656770245</v>
+        <v>21.583612</v>
       </c>
       <c r="I5">
-        <v>0.05348890811417928</v>
+        <v>0.9450222006930215</v>
       </c>
       <c r="J5">
-        <v>0.05348890811417928</v>
+        <v>0.9617036862109067</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.7790377793868</v>
+        <v>0.2531386666666667</v>
       </c>
       <c r="N5">
-        <v>18.7790377793868</v>
+        <v>0.759416</v>
       </c>
       <c r="O5">
-        <v>0.8157724497605758</v>
+        <v>0.009792759642172055</v>
       </c>
       <c r="P5">
-        <v>0.8157724497605758</v>
+        <v>0.01037020355076263</v>
       </c>
       <c r="Q5">
-        <v>7.368324607973463</v>
+        <v>1.821215587843556</v>
       </c>
       <c r="R5">
-        <v>7.368324607973463</v>
+        <v>16.390940290592</v>
       </c>
       <c r="S5">
-        <v>0.04363477760732237</v>
+        <v>0.00925437526790324</v>
       </c>
       <c r="T5">
-        <v>0.04363477760732237</v>
+        <v>0.009973062981525857</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.392369656770245</v>
+        <v>7.194537333333333</v>
       </c>
       <c r="H6">
-        <v>0.392369656770245</v>
+        <v>21.583612</v>
       </c>
       <c r="I6">
-        <v>0.05348890811417928</v>
+        <v>0.9450222006930215</v>
       </c>
       <c r="J6">
-        <v>0.05348890811417928</v>
+        <v>0.9617036862109067</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.168125640760176</v>
+        <v>0.1263413333333333</v>
       </c>
       <c r="N6">
-        <v>0.168125640760176</v>
+        <v>0.379024</v>
       </c>
       <c r="O6">
-        <v>0.007303476751138085</v>
+        <v>0.00488755955973356</v>
       </c>
       <c r="P6">
-        <v>0.007303476751138085</v>
+        <v>0.005175761414855963</v>
       </c>
       <c r="Q6">
-        <v>0.06596739995934776</v>
+        <v>0.9089674394097778</v>
       </c>
       <c r="R6">
-        <v>0.06596739995934776</v>
+        <v>8.180706954688</v>
       </c>
       <c r="S6">
-        <v>0.0003906549968556697</v>
+        <v>0.004618852291157624</v>
       </c>
       <c r="T6">
-        <v>0.0003906549968556697</v>
+        <v>0.004977548831615158</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>7.194537333333333</v>
+      </c>
+      <c r="H7">
+        <v>21.583612</v>
+      </c>
+      <c r="I7">
+        <v>0.9450222006930215</v>
+      </c>
+      <c r="J7">
+        <v>0.9617036862109067</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>4.261317500000001</v>
+      </c>
+      <c r="N7">
+        <v>8.522635000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.1648505879642312</v>
+      </c>
+      <c r="P7">
+        <v>0.1163808238684119</v>
+      </c>
+      <c r="Q7">
+        <v>30.65820784293667</v>
+      </c>
+      <c r="R7">
+        <v>183.94924705762</v>
+      </c>
+      <c r="S7">
+        <v>0.1557874654234963</v>
+      </c>
+      <c r="T7">
+        <v>0.111923867318514</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.02238633333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.067159</v>
+      </c>
+      <c r="I8">
+        <v>0.002940506249664914</v>
+      </c>
+      <c r="J8">
+        <v>0.002992411921704221</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.5</v>
+      </c>
+      <c r="M8">
+        <v>0.056827</v>
+      </c>
+      <c r="N8">
+        <v>0.113654</v>
+      </c>
+      <c r="O8">
+        <v>0.002198372771388981</v>
+      </c>
+      <c r="P8">
+        <v>0.001552001951971484</v>
+      </c>
+      <c r="Q8">
+        <v>0.001272148164333333</v>
+      </c>
+      <c r="R8">
+        <v>0.007632888986</v>
+      </c>
+      <c r="S8">
+        <v>6.464328873362473E-06</v>
+      </c>
+      <c r="T8">
+        <v>4.64422914358769E-06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.02238633333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.067159</v>
+      </c>
+      <c r="I9">
+        <v>0.002940506249664914</v>
+      </c>
+      <c r="J9">
+        <v>0.002992411921704221</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>21.108446</v>
+      </c>
+      <c r="N9">
+        <v>63.325338</v>
+      </c>
+      <c r="O9">
+        <v>0.8165877651949714</v>
+      </c>
+      <c r="P9">
+        <v>0.8647390165348687</v>
+      </c>
+      <c r="Q9">
+        <v>0.4725407083046667</v>
+      </c>
+      <c r="R9">
+        <v>4.252866374742</v>
+      </c>
+      <c r="S9">
+        <v>0.002401181426955719</v>
+      </c>
+      <c r="T9">
+        <v>0.002587655342241725</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.02238633333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.067159</v>
+      </c>
+      <c r="I10">
+        <v>0.002940506249664914</v>
+      </c>
+      <c r="J10">
+        <v>0.002992411921704221</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.04350366666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.130511</v>
+      </c>
+      <c r="O10">
+        <v>0.001682954867502814</v>
+      </c>
+      <c r="P10">
+        <v>0.001782192679129202</v>
+      </c>
+      <c r="Q10">
+        <v>0.0009738875832222221</v>
+      </c>
+      <c r="R10">
+        <v>0.008764988249000001</v>
+      </c>
+      <c r="S10">
+        <v>4.948739305796012E-06</v>
+      </c>
+      <c r="T10">
+        <v>5.333054619800209E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.02238633333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.067159</v>
+      </c>
+      <c r="I11">
+        <v>0.002940506249664914</v>
+      </c>
+      <c r="J11">
+        <v>0.002992411921704221</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.2531386666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.759416</v>
+      </c>
+      <c r="O11">
+        <v>0.009792759642172055</v>
+      </c>
+      <c r="P11">
+        <v>0.01037020355076263</v>
+      </c>
+      <c r="Q11">
+        <v>0.005666846571555555</v>
+      </c>
+      <c r="R11">
+        <v>0.051001619144</v>
+      </c>
+      <c r="S11">
+        <v>2.879567092927327E-05</v>
+      </c>
+      <c r="T11">
+        <v>3.103192073580154E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.02238633333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.067159</v>
+      </c>
+      <c r="I12">
+        <v>0.002940506249664914</v>
+      </c>
+      <c r="J12">
+        <v>0.002992411921704221</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.1263413333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.379024</v>
+      </c>
+      <c r="O12">
+        <v>0.00488755955973356</v>
+      </c>
+      <c r="P12">
+        <v>0.005175761414855963</v>
+      </c>
+      <c r="Q12">
+        <v>0.002828319201777777</v>
+      </c>
+      <c r="R12">
+        <v>0.025454872816</v>
+      </c>
+      <c r="S12">
+        <v>1.437189943100602E-05</v>
+      </c>
+      <c r="T12">
+        <v>1.548801016171169E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.02238633333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.067159</v>
+      </c>
+      <c r="I13">
+        <v>0.002940506249664914</v>
+      </c>
+      <c r="J13">
+        <v>0.002992411921704221</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.261317500000001</v>
+      </c>
+      <c r="N13">
+        <v>8.522635000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.1648505879642312</v>
+      </c>
+      <c r="P13">
+        <v>0.1163808238684119</v>
+      </c>
+      <c r="Q13">
+        <v>0.09539527399416667</v>
+      </c>
+      <c r="R13">
+        <v>0.5723716439650001</v>
+      </c>
+      <c r="S13">
+        <v>0.0004847441841697573</v>
+      </c>
+      <c r="T13">
+        <v>0.000348259364801595</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.3961645</v>
+      </c>
+      <c r="H14">
+        <v>0.7923290000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.05203729305731365</v>
+      </c>
+      <c r="J14">
+        <v>0.03530390186738909</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.056827</v>
+      </c>
+      <c r="N14">
+        <v>0.113654</v>
+      </c>
+      <c r="O14">
+        <v>0.002198372771388981</v>
+      </c>
+      <c r="P14">
+        <v>0.001552001951971484</v>
+      </c>
+      <c r="Q14">
+        <v>0.0225128400415</v>
+      </c>
+      <c r="R14">
+        <v>0.09005136016600002</v>
+      </c>
+      <c r="S14">
+        <v>0.0001143973681539872</v>
+      </c>
+      <c r="T14">
+        <v>5.479172461039757E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.3961645</v>
+      </c>
+      <c r="H15">
+        <v>0.7923290000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.05203729305731365</v>
+      </c>
+      <c r="J15">
+        <v>0.03530390186738909</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>21.108446</v>
+      </c>
+      <c r="N15">
+        <v>63.325338</v>
+      </c>
+      <c r="O15">
+        <v>0.8165877651949714</v>
+      </c>
+      <c r="P15">
+        <v>0.8647390165348687</v>
+      </c>
+      <c r="Q15">
+        <v>8.362416955367001</v>
+      </c>
+      <c r="R15">
+        <v>50.174501732202</v>
+      </c>
+      <c r="S15">
+        <v>0.04249301684446756</v>
+      </c>
+      <c r="T15">
+        <v>0.03052866138064956</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.3961645</v>
+      </c>
+      <c r="H16">
+        <v>0.7923290000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.05203729305731365</v>
+      </c>
+      <c r="J16">
+        <v>0.03530390186738909</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.04350366666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.130511</v>
+      </c>
+      <c r="O16">
+        <v>0.001682954867502814</v>
+      </c>
+      <c r="P16">
+        <v>0.001782192679129202</v>
+      </c>
+      <c r="Q16">
+        <v>0.01723460835316667</v>
+      </c>
+      <c r="R16">
+        <v>0.103407650119</v>
+      </c>
+      <c r="S16">
+        <v>8.757641564247641E-05</v>
+      </c>
+      <c r="T16">
+        <v>6.291835545275659E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.3961645</v>
+      </c>
+      <c r="H17">
+        <v>0.7923290000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.05203729305731365</v>
+      </c>
+      <c r="J17">
+        <v>0.03530390186738909</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.2531386666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.759416</v>
+      </c>
+      <c r="O17">
+        <v>0.009792759642172055</v>
+      </c>
+      <c r="P17">
+        <v>0.01037020355076263</v>
+      </c>
+      <c r="Q17">
+        <v>0.1002845533106667</v>
+      </c>
+      <c r="R17">
+        <v>0.6017073198640001</v>
+      </c>
+      <c r="S17">
+        <v>0.0005095887033395412</v>
+      </c>
+      <c r="T17">
+        <v>0.0003661086485009738</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.392369656770245</v>
-      </c>
-      <c r="H7">
-        <v>0.392369656770245</v>
-      </c>
-      <c r="I7">
-        <v>0.05348890811417928</v>
-      </c>
-      <c r="J7">
-        <v>0.05348890811417928</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>4.07278262595734</v>
-      </c>
-      <c r="N7">
-        <v>4.07278262595734</v>
-      </c>
-      <c r="O7">
-        <v>0.176924073488286</v>
-      </c>
-      <c r="P7">
-        <v>0.176924073488286</v>
-      </c>
-      <c r="Q7">
-        <v>1.598036321046699</v>
-      </c>
-      <c r="R7">
-        <v>1.598036321046699</v>
-      </c>
-      <c r="S7">
-        <v>0.009463475510001235</v>
-      </c>
-      <c r="T7">
-        <v>0.009463475510001235</v>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.3961645</v>
+      </c>
+      <c r="H18">
+        <v>0.7923290000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.05203729305731365</v>
+      </c>
+      <c r="J18">
+        <v>0.03530390186738909</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.1263413333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.379024</v>
+      </c>
+      <c r="O18">
+        <v>0.00488755955973356</v>
+      </c>
+      <c r="P18">
+        <v>0.005175761414855963</v>
+      </c>
+      <c r="Q18">
+        <v>0.05005195114933333</v>
+      </c>
+      <c r="R18">
+        <v>0.3003117068960001</v>
+      </c>
+      <c r="S18">
+        <v>0.0002543353691449301</v>
+      </c>
+      <c r="T18">
+        <v>0.0001827245730790938</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.3961645</v>
+      </c>
+      <c r="H19">
+        <v>0.7923290000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.05203729305731365</v>
+      </c>
+      <c r="J19">
+        <v>0.03530390186738909</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>4.261317500000001</v>
+      </c>
+      <c r="N19">
+        <v>8.522635000000001</v>
+      </c>
+      <c r="O19">
+        <v>0.1648505879642312</v>
+      </c>
+      <c r="P19">
+        <v>0.1163808238684119</v>
+      </c>
+      <c r="Q19">
+        <v>1.68818271672875</v>
+      </c>
+      <c r="R19">
+        <v>6.752730866915002</v>
+      </c>
+      <c r="S19">
+        <v>0.00857837835656516</v>
+      </c>
+      <c r="T19">
+        <v>0.004108697185096308</v>
       </c>
     </row>
   </sheetData>
